--- a/Code/Results/Cases/Case_7_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_12/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9850781194238589</v>
+        <v>1.00222181308617</v>
       </c>
       <c r="D2">
-        <v>1.006339481152694</v>
+        <v>1.020127891071193</v>
       </c>
       <c r="E2">
-        <v>0.9929768163579662</v>
+        <v>1.008340155008171</v>
       </c>
       <c r="F2">
-        <v>0.9611230356577095</v>
+        <v>0.9791948618852112</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03839857548887</v>
+        <v>1.044738096699618</v>
       </c>
       <c r="J2">
-        <v>1.007714489386535</v>
+        <v>1.024336272580434</v>
       </c>
       <c r="K2">
-        <v>1.0177111978479</v>
+        <v>1.031313757307559</v>
       </c>
       <c r="L2">
-        <v>1.004534870272327</v>
+        <v>1.019684508296673</v>
       </c>
       <c r="M2">
-        <v>0.9731519408936724</v>
+        <v>0.9909518619216571</v>
       </c>
       <c r="N2">
-        <v>1.009145559547931</v>
+        <v>1.02579094758051</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9928535977328292</v>
+        <v>1.006862449610855</v>
       </c>
       <c r="D3">
-        <v>1.012335077003203</v>
+        <v>1.02364032654108</v>
       </c>
       <c r="E3">
-        <v>0.9994557075892389</v>
+        <v>1.012054252399569</v>
       </c>
       <c r="F3">
-        <v>0.9718198267284731</v>
+        <v>0.9865070033095511</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041178987536758</v>
+        <v>1.046385853072671</v>
       </c>
       <c r="J3">
-        <v>1.013540995077459</v>
+        <v>1.027167769596819</v>
       </c>
       <c r="K3">
-        <v>1.022812524011569</v>
+        <v>1.033979402899663</v>
       </c>
       <c r="L3">
-        <v>1.010095557478901</v>
+        <v>1.022535185564342</v>
       </c>
       <c r="M3">
-        <v>0.9828264446486971</v>
+        <v>0.9973154912488121</v>
       </c>
       <c r="N3">
-        <v>1.014980339545246</v>
+        <v>1.028626465647437</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9977102127722454</v>
+        <v>1.009795824156489</v>
       </c>
       <c r="D4">
-        <v>1.016081304530558</v>
+        <v>1.025861928703194</v>
       </c>
       <c r="E4">
-        <v>1.003508300614574</v>
+        <v>1.014407594852875</v>
       </c>
       <c r="F4">
-        <v>0.9784876579529453</v>
+        <v>0.9911172570109587</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042898956531834</v>
+        <v>1.047415321289177</v>
       </c>
       <c r="J4">
-        <v>1.017172673460649</v>
+        <v>1.028952228187178</v>
       </c>
       <c r="K4">
-        <v>1.025989440682967</v>
+        <v>1.03565792981812</v>
       </c>
       <c r="L4">
-        <v>1.013564567154962</v>
+        <v>1.024335187999884</v>
       </c>
       <c r="M4">
-        <v>0.9888528445229309</v>
+        <v>1.001324084506881</v>
       </c>
       <c r="N4">
-        <v>1.0186171753283</v>
+        <v>1.030413458373674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9997128169952444</v>
+        <v>1.011013060642171</v>
       </c>
       <c r="D5">
-        <v>1.017626246839257</v>
+        <v>1.026784089397797</v>
       </c>
       <c r="E5">
-        <v>1.005180671434426</v>
+        <v>1.015385453700806</v>
       </c>
       <c r="F5">
-        <v>0.9812345127602329</v>
+        <v>0.9930278995208132</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043604111659059</v>
+        <v>1.04783957858721</v>
       </c>
       <c r="J5">
-        <v>1.018668329384405</v>
+        <v>1.029691413018306</v>
       </c>
       <c r="K5">
-        <v>1.027297106724551</v>
+        <v>1.036352879619987</v>
       </c>
       <c r="L5">
-        <v>1.014993928249529</v>
+        <v>1.025081634114615</v>
       </c>
       <c r="M5">
-        <v>0.9913343872460313</v>
+        <v>1.002984473222188</v>
       </c>
       <c r="N5">
-        <v>1.020114955255021</v>
+        <v>1.031153692932048</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000046842394106</v>
+        <v>1.011216523069218</v>
       </c>
       <c r="D6">
-        <v>1.017883944819207</v>
+        <v>1.026938244833737</v>
       </c>
       <c r="E6">
-        <v>1.005459689239292</v>
+        <v>1.015548979967477</v>
       </c>
       <c r="F6">
-        <v>0.9816925400792355</v>
+        <v>0.9933471334332761</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043721487393871</v>
+        <v>1.047910320359143</v>
       </c>
       <c r="J6">
-        <v>1.018917688358684</v>
+        <v>1.029814891982412</v>
       </c>
       <c r="K6">
-        <v>1.02751508111715</v>
+        <v>1.036468947923664</v>
       </c>
       <c r="L6">
-        <v>1.01523227478125</v>
+        <v>1.025206374246581</v>
       </c>
       <c r="M6">
-        <v>0.9917481100813018</v>
+        <v>1.003261840019251</v>
       </c>
       <c r="N6">
-        <v>1.020364668347646</v>
+        <v>1.031277347250446</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.997737122016045</v>
+        <v>1.009812150766354</v>
       </c>
       <c r="D7">
-        <v>1.016102063467323</v>
+        <v>1.025874296451421</v>
       </c>
       <c r="E7">
-        <v>1.003530767438027</v>
+        <v>1.014420705587493</v>
       </c>
       <c r="F7">
-        <v>0.9785245772907323</v>
+        <v>0.9911428932888363</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042908447981699</v>
+        <v>1.047421023419439</v>
       </c>
       <c r="J7">
-        <v>1.017192778148321</v>
+        <v>1.028962147903103</v>
       </c>
       <c r="K7">
-        <v>1.026007021239042</v>
+        <v>1.035667257331835</v>
       </c>
       <c r="L7">
-        <v>1.013583777968917</v>
+        <v>1.024345201915728</v>
       </c>
       <c r="M7">
-        <v>0.9888862022341244</v>
+        <v>1.001346366599665</v>
       </c>
       <c r="N7">
-        <v>1.018637308566935</v>
+        <v>1.030423392176733</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9877437514142898</v>
+        <v>1.003804928351109</v>
       </c>
       <c r="D8">
-        <v>1.008394563721312</v>
+        <v>1.021325812779097</v>
       </c>
       <c r="E8">
-        <v>0.9951966459204405</v>
+        <v>1.009605979364729</v>
       </c>
       <c r="F8">
-        <v>0.9647934336603672</v>
+        <v>0.981692069884184</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039355269382067</v>
+        <v>1.045302735872264</v>
       </c>
       <c r="J8">
-        <v>1.009713555193496</v>
+        <v>1.025303330532337</v>
       </c>
       <c r="K8">
-        <v>1.019462013384971</v>
+        <v>1.032224457551024</v>
       </c>
       <c r="L8">
-        <v>1.006442077224383</v>
+        <v>1.020657384916384</v>
       </c>
       <c r="M8">
-        <v>0.9764724064406974</v>
+        <v>0.9931258805392742</v>
       </c>
       <c r="N8">
-        <v>1.011147464257634</v>
+        <v>1.026759378865629</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9686585162375039</v>
+        <v>0.9926554274712216</v>
       </c>
       <c r="D9">
-        <v>0.9936921614033281</v>
+        <v>1.012896993182902</v>
       </c>
       <c r="E9">
-        <v>0.9793334223955589</v>
+        <v>1.000716884785096</v>
       </c>
       <c r="F9">
-        <v>0.9384237878731798</v>
+        <v>0.9640363474152074</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032435274331713</v>
+        <v>1.041275806735615</v>
       </c>
       <c r="J9">
-        <v>0.995368727076103</v>
+        <v>1.018470234263612</v>
       </c>
       <c r="K9">
-        <v>1.006888414691971</v>
+        <v>1.025784234633068</v>
       </c>
       <c r="L9">
-        <v>0.9927709425802627</v>
+        <v>1.013798341731618</v>
       </c>
       <c r="M9">
-        <v>0.9526016918138935</v>
+        <v>0.9777411657785465</v>
       </c>
       <c r="N9">
-        <v>0.9967822648389398</v>
+        <v>1.019916578816435</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9547164898661835</v>
+        <v>0.984794127599585</v>
       </c>
       <c r="D10">
-        <v>0.9829738311876324</v>
+        <v>1.006966326806422</v>
       </c>
       <c r="E10">
-        <v>0.9677901352121789</v>
+        <v>0.9944842846962259</v>
       </c>
       <c r="F10">
-        <v>0.9189985220310395</v>
+        <v>0.951477344917236</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027292623629489</v>
+        <v>1.038373741140825</v>
       </c>
       <c r="J10">
-        <v>0.9848495424513073</v>
+        <v>1.013624311361282</v>
       </c>
       <c r="K10">
-        <v>0.9976574569409511</v>
+        <v>1.021210931001147</v>
       </c>
       <c r="L10">
-        <v>0.9827663646472842</v>
+        <v>1.008953846370656</v>
       </c>
       <c r="M10">
-        <v>0.9350023742816516</v>
+        <v>0.9667816721520135</v>
       </c>
       <c r="N10">
-        <v>0.9862481417654096</v>
+        <v>1.015063774147748</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9483273753776934</v>
+        <v>0.981276239848204</v>
       </c>
       <c r="D11">
-        <v>0.9780699029571197</v>
+        <v>1.004316102076761</v>
       </c>
       <c r="E11">
-        <v>0.9625132545998814</v>
+        <v>0.9917042284623491</v>
       </c>
       <c r="F11">
-        <v>0.9100400367635785</v>
+        <v>0.945822673116526</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024916221037736</v>
+        <v>1.037060612044147</v>
       </c>
       <c r="J11">
-        <v>0.9800198112919325</v>
+        <v>1.011449240649849</v>
       </c>
       <c r="K11">
-        <v>0.9934175875885284</v>
+        <v>1.019157079479445</v>
       </c>
       <c r="L11">
-        <v>0.9781785195587733</v>
+        <v>1.00678430514886</v>
       </c>
       <c r="M11">
-        <v>0.9268843020200359</v>
+        <v>0.9618441074804293</v>
       </c>
       <c r="N11">
-        <v>0.9814115518338101</v>
+        <v>1.012885614586421</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9458946863274357</v>
+        <v>0.9799512664857271</v>
       </c>
       <c r="D12">
-        <v>0.9762041522158925</v>
+        <v>1.003318552858617</v>
       </c>
       <c r="E12">
-        <v>0.9605062290971006</v>
+        <v>0.9906585665338293</v>
       </c>
       <c r="F12">
-        <v>0.9066185871318624</v>
+        <v>0.9436868884570963</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024008534915818</v>
+        <v>1.036563898128964</v>
       </c>
       <c r="J12">
-        <v>0.9781795128080785</v>
+        <v>1.010629046871878</v>
       </c>
       <c r="K12">
-        <v>0.9918018978875797</v>
+        <v>1.018382449611438</v>
       </c>
       <c r="L12">
-        <v>0.9764313060529762</v>
+        <v>1.005966948965419</v>
       </c>
       <c r="M12">
-        <v>0.9237837769614249</v>
+        <v>0.9599787837153544</v>
       </c>
       <c r="N12">
-        <v>0.9795686399150244</v>
+        <v>1.012064256039208</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9464193175463383</v>
+        <v>0.9802363245523253</v>
       </c>
       <c r="D13">
-        <v>0.9766064483664226</v>
+        <v>1.00353313853055</v>
       </c>
       <c r="E13">
-        <v>0.9609389601846617</v>
+        <v>0.990883467860929</v>
       </c>
       <c r="F13">
-        <v>0.9073569609142578</v>
+        <v>0.9441466723677155</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024204412672587</v>
+        <v>1.036670858406408</v>
       </c>
       <c r="J13">
-        <v>0.9785764503237236</v>
+        <v>1.010805549484196</v>
       </c>
       <c r="K13">
-        <v>0.9921503942097877</v>
+        <v>1.018549153224979</v>
       </c>
       <c r="L13">
-        <v>0.9768081231680796</v>
+        <v>1.006142806644199</v>
       </c>
       <c r="M13">
-        <v>0.9244528913324225</v>
+        <v>0.960380360322066</v>
       </c>
       <c r="N13">
-        <v>0.9799661411274712</v>
+        <v>1.012241009305481</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.948127544542414</v>
+        <v>0.9811670970195923</v>
       </c>
       <c r="D14">
-        <v>0.9779166118320458</v>
+        <v>1.004233917172783</v>
       </c>
       <c r="E14">
-        <v>0.9623483440740678</v>
+        <v>0.9916180643972911</v>
       </c>
       <c r="F14">
-        <v>0.9097592095431917</v>
+        <v>0.9456468680801016</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024841717269922</v>
+        <v>1.037019739156957</v>
       </c>
       <c r="J14">
-        <v>0.9798686690401306</v>
+        <v>1.011381698162771</v>
       </c>
       <c r="K14">
-        <v>0.9932848947216255</v>
+        <v>1.019093291973739</v>
       </c>
       <c r="L14">
-        <v>0.9780350032557151</v>
+        <v>1.006716980946537</v>
       </c>
       <c r="M14">
-        <v>0.9266298154427962</v>
+        <v>0.9616905727085425</v>
       </c>
       <c r="N14">
-        <v>0.9812601949426749</v>
+        <v>1.012817976181264</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9491719391106155</v>
+        <v>0.9817381186368813</v>
       </c>
       <c r="D15">
-        <v>0.9787178318098307</v>
+        <v>1.004663924323833</v>
       </c>
       <c r="E15">
-        <v>0.9632103209307999</v>
+        <v>0.9920689220262913</v>
       </c>
       <c r="F15">
-        <v>0.9112264864109401</v>
+        <v>0.9465664079364584</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025230988042573</v>
+        <v>1.037233494113924</v>
       </c>
       <c r="J15">
-        <v>0.9806585432118813</v>
+        <v>1.011735032220532</v>
       </c>
       <c r="K15">
-        <v>0.9939783463529865</v>
+        <v>1.019426976846524</v>
       </c>
       <c r="L15">
-        <v>0.9787850616538917</v>
+        <v>1.00706920383688</v>
       </c>
       <c r="M15">
-        <v>0.9279594660637339</v>
+        <v>0.9624936134763491</v>
       </c>
       <c r="N15">
-        <v>0.9820511908263494</v>
+        <v>1.013171812013915</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9551325604002713</v>
+        <v>0.9850251019228691</v>
       </c>
       <c r="D16">
-        <v>0.9832933671072122</v>
+        <v>1.007140415990373</v>
       </c>
       <c r="E16">
-        <v>0.9681340603482319</v>
+        <v>0.994667007501235</v>
       </c>
       <c r="F16">
-        <v>0.9195805953406324</v>
+        <v>0.951847828290369</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02744698184227</v>
+        <v>1.038459659519883</v>
       </c>
       <c r="J16">
-        <v>0.9851638765299431</v>
+        <v>1.013766984647396</v>
       </c>
       <c r="K16">
-        <v>0.9979333752627081</v>
+        <v>1.0213456312781</v>
       </c>
       <c r="L16">
-        <v>0.9830650773831717</v>
+        <v>1.009096259947924</v>
       </c>
       <c r="M16">
-        <v>0.9355298237928928</v>
+        <v>0.9671051139848992</v>
       </c>
       <c r="N16">
-        <v>0.9865629222344913</v>
+        <v>1.015206650046294</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9587729406007648</v>
+        <v>0.9870556607490303</v>
       </c>
       <c r="D17">
-        <v>0.9860900357087417</v>
+        <v>1.008671311938634</v>
       </c>
       <c r="E17">
-        <v>0.971144687591657</v>
+        <v>0.9962744028197015</v>
       </c>
       <c r="F17">
-        <v>0.9246668744873624</v>
+        <v>0.9551008344100215</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028795330467423</v>
+        <v>1.039213353170654</v>
       </c>
       <c r="J17">
-        <v>0.9879130959916729</v>
+        <v>1.015020522550044</v>
       </c>
       <c r="K17">
-        <v>1.000346433407336</v>
+        <v>1.022528990896348</v>
       </c>
       <c r="L17">
-        <v>0.9856783055952268</v>
+        <v>1.01034807211331</v>
       </c>
       <c r="M17">
-        <v>0.9401386214376378</v>
+        <v>0.9699447349956224</v>
       </c>
       <c r="N17">
-        <v>0.989316045903197</v>
+        <v>1.016461968116547</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9608628401124062</v>
+        <v>0.9882291464153947</v>
       </c>
       <c r="D18">
-        <v>0.9876962871539896</v>
+        <v>1.009556382811587</v>
       </c>
       <c r="E18">
-        <v>0.9728742476741764</v>
+        <v>0.9972041837830824</v>
       </c>
       <c r="F18">
-        <v>0.9275817144503222</v>
+        <v>0.9569775741398405</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029567556381777</v>
+        <v>1.039647550959489</v>
       </c>
       <c r="J18">
-        <v>0.9894905334577516</v>
+        <v>1.015744338324533</v>
       </c>
       <c r="K18">
-        <v>1.001730833055334</v>
+        <v>1.023212174582169</v>
       </c>
       <c r="L18">
-        <v>0.9871782316812725</v>
+        <v>1.011071351798985</v>
       </c>
       <c r="M18">
-        <v>0.942779656609907</v>
+        <v>0.9715826885075551</v>
       </c>
       <c r="N18">
-        <v>0.9908957235114122</v>
+        <v>1.017186811792458</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9615699453006913</v>
+        <v>0.9886274585537072</v>
       </c>
       <c r="D19">
-        <v>0.9882398673463894</v>
+        <v>1.009856856098418</v>
       </c>
       <c r="E19">
-        <v>0.9734596306304518</v>
+        <v>0.9975199178959852</v>
       </c>
       <c r="F19">
-        <v>0.9285671135730679</v>
+        <v>0.9576140670287723</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02982851857858</v>
+        <v>1.039794695526291</v>
       </c>
       <c r="J19">
-        <v>0.9900241038980961</v>
+        <v>1.015989915250723</v>
       </c>
       <c r="K19">
-        <v>1.002199079172007</v>
+        <v>1.023443946448504</v>
       </c>
       <c r="L19">
-        <v>0.9876856695436648</v>
+        <v>1.011316824433997</v>
       </c>
       <c r="M19">
-        <v>0.9436724583734609</v>
+        <v>0.9721381456760561</v>
       </c>
       <c r="N19">
-        <v>0.9914300516829833</v>
+        <v>1.017432737466051</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9583858682791333</v>
+        <v>0.9868389370016277</v>
       </c>
       <c r="D20">
-        <v>0.9857925967572284</v>
+        <v>1.008507881273314</v>
       </c>
       <c r="E20">
-        <v>0.9708244495187214</v>
+        <v>0.9961027554252812</v>
       </c>
       <c r="F20">
-        <v>0.9241266100603626</v>
+        <v>0.9547539766428923</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028652155329694</v>
+        <v>1.039133052724561</v>
       </c>
       <c r="J20">
-        <v>0.9876208675145902</v>
+        <v>1.01488679536065</v>
       </c>
       <c r="K20">
-        <v>1.000089952892521</v>
+        <v>1.022402761545421</v>
       </c>
       <c r="L20">
-        <v>0.9854004780007565</v>
+        <v>1.010214481098839</v>
       </c>
       <c r="M20">
-        <v>0.9396490915134322</v>
+        <v>0.9696419852647691</v>
       </c>
       <c r="N20">
-        <v>0.9890234024281578</v>
+        <v>1.016328051019205</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9476262154696558</v>
+        <v>0.9808935220489362</v>
       </c>
       <c r="D21">
-        <v>0.9775320642224615</v>
+        <v>1.004027924695959</v>
       </c>
       <c r="E21">
-        <v>0.9619346576610416</v>
+        <v>0.9914021104903032</v>
       </c>
       <c r="F21">
-        <v>0.9090545040759108</v>
+        <v>0.9452060993046434</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024654759133208</v>
+        <v>1.036917253786511</v>
       </c>
       <c r="J21">
-        <v>0.9794894666550832</v>
+        <v>1.011212381954615</v>
       </c>
       <c r="K21">
-        <v>0.9929519781321</v>
+        <v>1.018933386525187</v>
       </c>
       <c r="L21">
-        <v>0.9776749487042573</v>
+        <v>1.006548224113535</v>
       </c>
       <c r="M21">
-        <v>0.9259912089566066</v>
+        <v>0.9613056326577413</v>
       </c>
       <c r="N21">
-        <v>0.9808804540467457</v>
+        <v>1.012648419524672</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9405127889751025</v>
+        <v>0.977049020814853</v>
       </c>
       <c r="D22">
-        <v>0.9720795025707272</v>
+        <v>1.001134740246464</v>
       </c>
       <c r="E22">
-        <v>0.9560703379938973</v>
+        <v>0.9883708079817007</v>
       </c>
       <c r="F22">
-        <v>0.8990273051624947</v>
+        <v>0.9389965601970839</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021995275279489</v>
+        <v>1.035471990325478</v>
       </c>
       <c r="J22">
-        <v>0.9741056961808672</v>
+        <v>1.008830684491018</v>
       </c>
       <c r="K22">
-        <v>0.9882251306168843</v>
+        <v>1.016683751177873</v>
       </c>
       <c r="L22">
-        <v>0.9725653435101643</v>
+        <v>1.004176216018551</v>
       </c>
       <c r="M22">
-        <v>0.9169047189813223</v>
+        <v>0.9558817659104155</v>
       </c>
       <c r="N22">
-        <v>0.975489038000929</v>
+        <v>1.010263339777492</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9443193149949066</v>
+        <v>0.9790975655026027</v>
       </c>
       <c r="D23">
-        <v>0.9749963646999175</v>
+        <v>1.002676002539998</v>
       </c>
       <c r="E23">
-        <v>0.9592071548629836</v>
+        <v>0.989985237370907</v>
       </c>
       <c r="F23">
-        <v>0.904399676954678</v>
+        <v>0.9423089627197522</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02341993943735</v>
+        <v>1.036243259431577</v>
       </c>
       <c r="J23">
-        <v>0.9769873855681613</v>
+        <v>1.010100308272215</v>
       </c>
       <c r="K23">
-        <v>0.990755240691512</v>
+        <v>1.017883045908838</v>
       </c>
       <c r="L23">
-        <v>0.9752997477858104</v>
+        <v>1.005440254155132</v>
       </c>
       <c r="M23">
-        <v>0.921773011562579</v>
+        <v>0.9587752475864069</v>
       </c>
       <c r="N23">
-        <v>0.9783748197176875</v>
+        <v>1.011534766570086</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9585608725545044</v>
+        <v>0.9869368987483443</v>
       </c>
       <c r="D24">
-        <v>0.9859270735189156</v>
+        <v>1.008581752834082</v>
       </c>
       <c r="E24">
-        <v>0.9709692327980558</v>
+        <v>0.9961803394945707</v>
       </c>
       <c r="F24">
-        <v>0.9243708918293663</v>
+        <v>0.9549107704449765</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028716893841481</v>
+        <v>1.039169353751321</v>
       </c>
       <c r="J24">
-        <v>0.9877529933807806</v>
+        <v>1.014947243585411</v>
       </c>
       <c r="K24">
-        <v>1.000205916451763</v>
+        <v>1.022459820891838</v>
       </c>
       <c r="L24">
-        <v>0.9855260911621331</v>
+        <v>1.010274866341481</v>
       </c>
       <c r="M24">
-        <v>0.9398704341076983</v>
+        <v>0.9697788413607077</v>
       </c>
       <c r="N24">
-        <v>0.9891557159282331</v>
+        <v>1.016388585087379</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9737886228905163</v>
+        <v>0.9956094802314238</v>
       </c>
       <c r="D25">
-        <v>0.9976412308197686</v>
+        <v>1.015128333968879</v>
       </c>
       <c r="E25">
-        <v>0.9835905229293345</v>
+        <v>1.003066269563616</v>
       </c>
       <c r="F25">
-        <v>0.94553427438102</v>
+        <v>0.9687306406791255</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034310440286194</v>
+        <v>1.042353648257084</v>
       </c>
       <c r="J25">
-        <v>0.999231489798176</v>
+        <v>1.020285511721972</v>
       </c>
       <c r="K25">
-        <v>1.01027627433316</v>
+        <v>1.0274962551035</v>
       </c>
       <c r="L25">
-        <v>0.9964490306575785</v>
+        <v>1.015617171402592</v>
       </c>
       <c r="M25">
-        <v>0.9590413569536781</v>
+        <v>0.9818345772338664</v>
       </c>
       <c r="N25">
-        <v>1.000650513127143</v>
+        <v>1.021734434177001</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00222181308617</v>
+        <v>1.002083389802132</v>
       </c>
       <c r="D2">
-        <v>1.020127891071193</v>
+        <v>1.019068161485257</v>
       </c>
       <c r="E2">
-        <v>1.008340155008171</v>
+        <v>1.008283789491658</v>
       </c>
       <c r="F2">
-        <v>0.9791948618852112</v>
+        <v>1.017524802291689</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044738096699618</v>
+        <v>1.044299946814724</v>
       </c>
       <c r="J2">
-        <v>1.024336272580434</v>
+        <v>1.024201965102474</v>
       </c>
       <c r="K2">
-        <v>1.031313757307559</v>
+        <v>1.030268087592932</v>
       </c>
       <c r="L2">
-        <v>1.019684508296673</v>
+        <v>1.01962891182504</v>
       </c>
       <c r="M2">
-        <v>0.9909518619216571</v>
+        <v>1.0287452705583</v>
       </c>
       <c r="N2">
-        <v>1.02579094758051</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01202853832616</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.031322284567509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006862449610855</v>
+        <v>1.005583403987515</v>
       </c>
       <c r="D3">
-        <v>1.02364032654108</v>
+        <v>1.021513918024808</v>
       </c>
       <c r="E3">
-        <v>1.012054252399569</v>
+        <v>1.011005815124554</v>
       </c>
       <c r="F3">
-        <v>0.9865070033095511</v>
+        <v>1.020445696415693</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046385853072671</v>
+        <v>1.045257877447661</v>
       </c>
       <c r="J3">
-        <v>1.027167769596819</v>
+        <v>1.02592300844445</v>
       </c>
       <c r="K3">
-        <v>1.033979402899663</v>
+        <v>1.031878730030697</v>
       </c>
       <c r="L3">
-        <v>1.022535185564342</v>
+        <v>1.021499784908252</v>
       </c>
       <c r="M3">
-        <v>0.9973154912488121</v>
+        <v>1.030823487261264</v>
       </c>
       <c r="N3">
-        <v>1.028626465647437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012604868551084</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.032967073108628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009795824156489</v>
+        <v>1.007806005713594</v>
       </c>
       <c r="D4">
-        <v>1.025861928703194</v>
+        <v>1.023068699122515</v>
       </c>
       <c r="E4">
-        <v>1.014407594852875</v>
+        <v>1.012739816176648</v>
       </c>
       <c r="F4">
-        <v>0.9911172570109587</v>
+        <v>1.022308010234031</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047415321289177</v>
+        <v>1.045855294715736</v>
       </c>
       <c r="J4">
-        <v>1.028952228187178</v>
+        <v>1.027012119084856</v>
       </c>
       <c r="K4">
-        <v>1.03565792981812</v>
+        <v>1.03289645482859</v>
       </c>
       <c r="L4">
-        <v>1.024335187999884</v>
+        <v>1.022686876502609</v>
       </c>
       <c r="M4">
-        <v>1.001324084506881</v>
+        <v>1.032144450858601</v>
       </c>
       <c r="N4">
-        <v>1.030413458373674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012969525384378</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.034012537527212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011013060642171</v>
+        <v>1.008730569007061</v>
       </c>
       <c r="D5">
-        <v>1.026784089397797</v>
+        <v>1.023715820050407</v>
       </c>
       <c r="E5">
-        <v>1.015385453700806</v>
+        <v>1.013462406813754</v>
       </c>
       <c r="F5">
-        <v>0.9930278995208132</v>
+        <v>1.023084471942502</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04783957858721</v>
+        <v>1.046101155931817</v>
       </c>
       <c r="J5">
-        <v>1.029691413018306</v>
+        <v>1.027464230974529</v>
       </c>
       <c r="K5">
-        <v>1.036352879619987</v>
+        <v>1.033318557770434</v>
       </c>
       <c r="L5">
-        <v>1.025081634114615</v>
+        <v>1.023180427387099</v>
       </c>
       <c r="M5">
-        <v>1.002984473222188</v>
+        <v>1.03269422600304</v>
       </c>
       <c r="N5">
-        <v>1.031153692932048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013120886811092</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.034447651521228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011216523069218</v>
+        <v>1.008885239148919</v>
       </c>
       <c r="D6">
-        <v>1.026938244833737</v>
+        <v>1.023824096869017</v>
       </c>
       <c r="E6">
-        <v>1.015548979967477</v>
+        <v>1.013583363171065</v>
       </c>
       <c r="F6">
-        <v>0.9933471334332761</v>
+        <v>1.02321446976828</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047910320359143</v>
+        <v>1.046142128883104</v>
       </c>
       <c r="J6">
-        <v>1.029814891982412</v>
+        <v>1.027539808747153</v>
       </c>
       <c r="K6">
-        <v>1.036468947923664</v>
+        <v>1.033389096706783</v>
       </c>
       <c r="L6">
-        <v>1.025206374246581</v>
+        <v>1.023262977509941</v>
       </c>
       <c r="M6">
-        <v>1.003261840019251</v>
+        <v>1.032786213593635</v>
       </c>
       <c r="N6">
-        <v>1.031277347250446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013146188382102</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.034520454145945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009812150766354</v>
+        <v>1.007818398002412</v>
       </c>
       <c r="D7">
-        <v>1.025874296451421</v>
+        <v>1.023077371373465</v>
       </c>
       <c r="E7">
-        <v>1.014420705587493</v>
+        <v>1.012749496342247</v>
       </c>
       <c r="F7">
-        <v>0.9911428932888363</v>
+        <v>1.022318410487176</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047421023419439</v>
+        <v>1.045858600623864</v>
       </c>
       <c r="J7">
-        <v>1.028962147903103</v>
+        <v>1.027018182664591</v>
       </c>
       <c r="K7">
-        <v>1.035667257331835</v>
+        <v>1.032902117434398</v>
       </c>
       <c r="L7">
-        <v>1.024345201915728</v>
+        <v>1.022693492817198</v>
       </c>
       <c r="M7">
-        <v>1.001346366599665</v>
+        <v>1.032151818643435</v>
       </c>
       <c r="N7">
-        <v>1.030423392176733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012971555456586</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.034018368687997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003804928351109</v>
+        <v>1.003275127918633</v>
       </c>
       <c r="D8">
-        <v>1.021325812779097</v>
+        <v>1.019900557839717</v>
       </c>
       <c r="E8">
-        <v>1.009605979364729</v>
+        <v>1.009209468148456</v>
       </c>
       <c r="F8">
-        <v>0.981692069884184</v>
+        <v>1.01851777584264</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045302735872264</v>
+        <v>1.044628374819002</v>
       </c>
       <c r="J8">
-        <v>1.025303330532337</v>
+        <v>1.024788750375815</v>
       </c>
       <c r="K8">
-        <v>1.032224457551024</v>
+        <v>1.030817545357425</v>
       </c>
       <c r="L8">
-        <v>1.020657384916384</v>
+        <v>1.02026611981502</v>
       </c>
       <c r="M8">
-        <v>0.9931258805392742</v>
+        <v>1.029452620878967</v>
       </c>
       <c r="N8">
-        <v>1.026759378865629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012225047583324</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.031882111944248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9926554274712216</v>
+        <v>0.9949338517771829</v>
       </c>
       <c r="D9">
-        <v>1.012896993182902</v>
+        <v>1.01408307743661</v>
       </c>
       <c r="E9">
-        <v>1.000716884785096</v>
+        <v>1.002754675796364</v>
       </c>
       <c r="F9">
-        <v>0.9640363474152074</v>
+        <v>1.011600185590377</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041275806735615</v>
+        <v>1.042285188390897</v>
       </c>
       <c r="J9">
-        <v>1.018470234263612</v>
+        <v>1.020666785997233</v>
       </c>
       <c r="K9">
-        <v>1.025784234633068</v>
+        <v>1.026951725245187</v>
       </c>
       <c r="L9">
-        <v>1.013798341731618</v>
+        <v>1.015803217852265</v>
       </c>
       <c r="M9">
-        <v>0.9777411657785465</v>
+        <v>1.024507820295181</v>
       </c>
       <c r="N9">
-        <v>1.019916578816435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010844457200411</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.02796857526843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.984794127599585</v>
+        <v>0.9892127524858086</v>
       </c>
       <c r="D10">
-        <v>1.006966326806422</v>
+        <v>1.010115311592744</v>
       </c>
       <c r="E10">
-        <v>0.9944842846962259</v>
+        <v>0.9983685789188749</v>
       </c>
       <c r="F10">
-        <v>0.951477344917236</v>
+        <v>1.00714384775081</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038373741140825</v>
+        <v>1.040646201049024</v>
       </c>
       <c r="J10">
-        <v>1.013624311361282</v>
+        <v>1.017860994957942</v>
       </c>
       <c r="K10">
-        <v>1.021210931001147</v>
+        <v>1.024304301571683</v>
       </c>
       <c r="L10">
-        <v>1.008953846370656</v>
+        <v>1.012767351784746</v>
       </c>
       <c r="M10">
-        <v>0.9667816721520135</v>
+        <v>1.021385304748126</v>
       </c>
       <c r="N10">
-        <v>1.015063774147748</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009908514916521</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.025549523373225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.981276239848204</v>
+        <v>0.9873372216684406</v>
       </c>
       <c r="D11">
-        <v>1.004316102076761</v>
+        <v>1.008894833846403</v>
       </c>
       <c r="E11">
-        <v>0.9917042284623491</v>
+        <v>0.9970136151708378</v>
       </c>
       <c r="F11">
-        <v>0.945822673116526</v>
+        <v>1.007642937925197</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037060612044147</v>
+        <v>1.040271964911487</v>
       </c>
       <c r="J11">
-        <v>1.011449240649849</v>
+        <v>1.017246442928495</v>
       </c>
       <c r="K11">
-        <v>1.019157079479445</v>
+        <v>1.023650933748378</v>
       </c>
       <c r="L11">
-        <v>1.00678430514886</v>
+        <v>1.01199207094631</v>
       </c>
       <c r="M11">
-        <v>0.9618441074804293</v>
+        <v>1.022422144764236</v>
       </c>
       <c r="N11">
-        <v>1.012885614586421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009737885862339</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.026812239674268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9799512664857271</v>
+        <v>0.9868563351353274</v>
       </c>
       <c r="D12">
-        <v>1.003318552858617</v>
+        <v>1.008617548758887</v>
       </c>
       <c r="E12">
-        <v>0.9906585665338293</v>
+        <v>0.9967030715796625</v>
       </c>
       <c r="F12">
-        <v>0.9436868884570963</v>
+        <v>1.008649549226905</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036563898128964</v>
+        <v>1.040252196503888</v>
       </c>
       <c r="J12">
-        <v>1.010629046871878</v>
+        <v>1.017227566564497</v>
       </c>
       <c r="K12">
-        <v>1.018382449611438</v>
+        <v>1.023581491691647</v>
       </c>
       <c r="L12">
-        <v>1.005966948965419</v>
+        <v>1.011893709293693</v>
       </c>
       <c r="M12">
-        <v>0.9599787837153544</v>
+        <v>1.023612892706801</v>
       </c>
       <c r="N12">
-        <v>1.012064256039208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009759416994149</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.028084159600586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9802363245523253</v>
+        <v>0.9874138556507329</v>
       </c>
       <c r="D13">
-        <v>1.00353313853055</v>
+        <v>1.009044835141986</v>
       </c>
       <c r="E13">
-        <v>0.990883467860929</v>
+        <v>0.9971710423965214</v>
       </c>
       <c r="F13">
-        <v>0.9441466723677155</v>
+        <v>1.010134871017569</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036670858406408</v>
+        <v>1.040507016694079</v>
       </c>
       <c r="J13">
-        <v>1.010805549484196</v>
+        <v>1.017665994829995</v>
       </c>
       <c r="K13">
-        <v>1.018549153224979</v>
+        <v>1.023957318920042</v>
       </c>
       <c r="L13">
-        <v>1.006142806644199</v>
+        <v>1.012308425366051</v>
       </c>
       <c r="M13">
-        <v>0.960380360322066</v>
+        <v>1.025027054275906</v>
       </c>
       <c r="N13">
-        <v>1.012241009305481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009930307536311</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.029481516764114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9811670970195923</v>
+        <v>0.9882650336655565</v>
       </c>
       <c r="D14">
-        <v>1.004233917172783</v>
+        <v>1.009655494660721</v>
       </c>
       <c r="E14">
-        <v>0.9916180643972911</v>
+        <v>0.9978430961697645</v>
       </c>
       <c r="F14">
-        <v>0.9456468680801016</v>
+        <v>1.011364892151852</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037019739156957</v>
+        <v>1.040804238143883</v>
       </c>
       <c r="J14">
-        <v>1.011381698162771</v>
+        <v>1.018170647776172</v>
       </c>
       <c r="K14">
-        <v>1.019093291973739</v>
+        <v>1.024414324215359</v>
       </c>
       <c r="L14">
-        <v>1.006716980946537</v>
+        <v>1.012822825920976</v>
       </c>
       <c r="M14">
-        <v>0.9616905727085425</v>
+        <v>1.026092311373791</v>
       </c>
       <c r="N14">
-        <v>1.012817976181264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01011432533172</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.030498187585487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9817381186368813</v>
+        <v>0.988706583555268</v>
       </c>
       <c r="D15">
-        <v>1.004663924323833</v>
+        <v>1.009964839007076</v>
       </c>
       <c r="E15">
-        <v>0.9920689220262913</v>
+        <v>0.99818403137006</v>
       </c>
       <c r="F15">
-        <v>0.9465664079364584</v>
+        <v>1.011815947765132</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037233494113924</v>
+        <v>1.040941729188261</v>
       </c>
       <c r="J15">
-        <v>1.011735032220532</v>
+        <v>1.018402864032561</v>
       </c>
       <c r="K15">
-        <v>1.019426976846524</v>
+        <v>1.024630350933794</v>
       </c>
       <c r="L15">
-        <v>1.00706920383688</v>
+        <v>1.01306815708002</v>
       </c>
       <c r="M15">
-        <v>0.9624936134763491</v>
+        <v>1.026447711248486</v>
       </c>
       <c r="N15">
-        <v>1.013171812013915</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010195088116515</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.030816874273138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9850251019228691</v>
+        <v>0.9910039631355217</v>
       </c>
       <c r="D16">
-        <v>1.007140415990373</v>
+        <v>1.011547622999993</v>
       </c>
       <c r="E16">
-        <v>0.994667007501235</v>
+        <v>0.9999304405281775</v>
       </c>
       <c r="F16">
-        <v>0.951847828290369</v>
+        <v>1.013457066233188</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038459659519883</v>
+        <v>1.041592529891109</v>
       </c>
       <c r="J16">
-        <v>1.013766984647396</v>
+        <v>1.019501162138452</v>
       </c>
       <c r="K16">
-        <v>1.0213456312781</v>
+        <v>1.025675390600556</v>
       </c>
       <c r="L16">
-        <v>1.009096259947924</v>
+        <v>1.014264269568024</v>
       </c>
       <c r="M16">
-        <v>0.9671051139848992</v>
+        <v>1.027551549983529</v>
       </c>
       <c r="N16">
-        <v>1.015206650046294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010556805968483</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.031650367874447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9870556607490303</v>
+        <v>0.9923282080934545</v>
       </c>
       <c r="D17">
-        <v>1.008671311938634</v>
+        <v>1.012448446990548</v>
       </c>
       <c r="E17">
-        <v>0.9962744028197015</v>
+        <v>1.000926076520076</v>
       </c>
       <c r="F17">
-        <v>0.9551008344100215</v>
+        <v>1.014076635965052</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039213353170654</v>
+        <v>1.041937004275538</v>
       </c>
       <c r="J17">
-        <v>1.015020522550044</v>
+        <v>1.020084428098271</v>
       </c>
       <c r="K17">
-        <v>1.022528990896348</v>
+        <v>1.026241674461157</v>
       </c>
       <c r="L17">
-        <v>1.01034807211331</v>
+        <v>1.014917887721041</v>
       </c>
       <c r="M17">
-        <v>0.9699447349956224</v>
+        <v>1.027842271774482</v>
       </c>
       <c r="N17">
-        <v>1.016461968116547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010739448829526</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.031750204100007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9882291464153947</v>
+        <v>0.9929109796564616</v>
       </c>
       <c r="D18">
-        <v>1.009556382811587</v>
+        <v>1.012820877427139</v>
       </c>
       <c r="E18">
-        <v>0.9972041837830824</v>
+        <v>1.001340203066996</v>
       </c>
       <c r="F18">
-        <v>0.9569775741398405</v>
+        <v>1.013711262201234</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039647550959489</v>
+        <v>1.04203310203915</v>
       </c>
       <c r="J18">
-        <v>1.015744338324533</v>
+        <v>1.020244502919246</v>
       </c>
       <c r="K18">
-        <v>1.023212174582169</v>
+        <v>1.02642191564399</v>
       </c>
       <c r="L18">
-        <v>1.011071351798985</v>
+        <v>1.01513584289084</v>
       </c>
       <c r="M18">
-        <v>0.9715826885075551</v>
+        <v>1.027297445338222</v>
       </c>
       <c r="N18">
-        <v>1.017186811792458</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010772611281738</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.031079799121368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9886274585537072</v>
+        <v>0.9927878065805612</v>
       </c>
       <c r="D19">
-        <v>1.009856856098418</v>
+        <v>1.0126867759079</v>
       </c>
       <c r="E19">
-        <v>0.9975199178959852</v>
+        <v>1.001197310604667</v>
       </c>
       <c r="F19">
-        <v>0.9576140670287723</v>
+        <v>1.01234482624937</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039794695526291</v>
+        <v>1.041887557170986</v>
       </c>
       <c r="J19">
-        <v>1.015989915250723</v>
+        <v>1.019989839653382</v>
       </c>
       <c r="K19">
-        <v>1.023443946448504</v>
+        <v>1.026226665661925</v>
       </c>
       <c r="L19">
-        <v>1.011316824433997</v>
+        <v>1.014930976212897</v>
       </c>
       <c r="M19">
-        <v>0.9721381456760561</v>
+        <v>1.025890401373356</v>
       </c>
       <c r="N19">
-        <v>1.017432737466051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010661215500451</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.029638307224475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9868389370016277</v>
+        <v>0.9906978303720836</v>
       </c>
       <c r="D20">
-        <v>1.008507881273314</v>
+        <v>1.011144592321944</v>
       </c>
       <c r="E20">
-        <v>0.9961027554252812</v>
+        <v>0.9995050523349377</v>
       </c>
       <c r="F20">
-        <v>0.9547539766428923</v>
+        <v>1.008308707086427</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039133052724561</v>
+        <v>1.041076392129723</v>
       </c>
       <c r="J20">
-        <v>1.01488679536065</v>
+        <v>1.018592105121207</v>
       </c>
       <c r="K20">
-        <v>1.022402761545421</v>
+        <v>1.024994267861607</v>
       </c>
       <c r="L20">
-        <v>1.010214481098839</v>
+        <v>1.013556610387459</v>
       </c>
       <c r="M20">
-        <v>0.9696419852647691</v>
+        <v>1.022207014490535</v>
       </c>
       <c r="N20">
-        <v>1.016328051019205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010152575249669</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.026189114467513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9808935220489362</v>
+        <v>0.9862734516182347</v>
       </c>
       <c r="D21">
-        <v>1.004027924695959</v>
+        <v>1.008066445014955</v>
       </c>
       <c r="E21">
-        <v>0.9914021104903032</v>
+        <v>0.9961103577467441</v>
       </c>
       <c r="F21">
-        <v>0.9452060993046434</v>
+        <v>1.004493008889839</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036917253786511</v>
+        <v>1.039756705831328</v>
       </c>
       <c r="J21">
-        <v>1.011212381954615</v>
+        <v>1.016356499872768</v>
       </c>
       <c r="K21">
-        <v>1.018933386525187</v>
+        <v>1.022896590832634</v>
       </c>
       <c r="L21">
-        <v>1.006548224113535</v>
+        <v>1.011165797202492</v>
       </c>
       <c r="M21">
-        <v>0.9613056326577413</v>
+        <v>1.019389756891666</v>
       </c>
       <c r="N21">
-        <v>1.012648419524672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009400523073201</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.02391788719919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.977049020814853</v>
+        <v>0.9834760612485323</v>
       </c>
       <c r="D22">
-        <v>1.001134740246464</v>
+        <v>1.006128614500049</v>
       </c>
       <c r="E22">
-        <v>0.9883708079817007</v>
+        <v>0.9939761289257498</v>
       </c>
       <c r="F22">
-        <v>0.9389965601970839</v>
+        <v>1.002212507046398</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035471990325478</v>
+        <v>1.038922476003827</v>
       </c>
       <c r="J22">
-        <v>1.008830684491018</v>
+        <v>1.014959037759482</v>
       </c>
       <c r="K22">
-        <v>1.016683751177873</v>
+        <v>1.021579632222904</v>
       </c>
       <c r="L22">
-        <v>1.004176216018551</v>
+        <v>1.009667871916889</v>
       </c>
       <c r="M22">
-        <v>0.9558817659104155</v>
+        <v>1.017740260791526</v>
       </c>
       <c r="N22">
-        <v>1.010263339777492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008932360217417</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.022612389407317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9790975655026027</v>
+        <v>0.9849645278275051</v>
       </c>
       <c r="D23">
-        <v>1.002676002539998</v>
+        <v>1.00715936245306</v>
       </c>
       <c r="E23">
-        <v>0.989985237370907</v>
+        <v>0.9951110204871795</v>
       </c>
       <c r="F23">
-        <v>0.9423089627197522</v>
+        <v>1.003425048197658</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036243259431577</v>
+        <v>1.039367338315944</v>
       </c>
       <c r="J23">
-        <v>1.010100308272215</v>
+        <v>1.015702891721832</v>
       </c>
       <c r="K23">
-        <v>1.017883045908838</v>
+        <v>1.022280755655186</v>
       </c>
       <c r="L23">
-        <v>1.005440254155132</v>
+        <v>1.010464881901954</v>
       </c>
       <c r="M23">
-        <v>0.9587752475864069</v>
+        <v>1.018617712072464</v>
       </c>
       <c r="N23">
-        <v>1.011534766570086</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009181558177136</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.023306850720064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9869368987483443</v>
+        <v>0.9907045681728442</v>
       </c>
       <c r="D24">
-        <v>1.008581752834082</v>
+        <v>1.011141698766586</v>
       </c>
       <c r="E24">
-        <v>0.9961803394945707</v>
+        <v>0.9995028531759794</v>
       </c>
       <c r="F24">
-        <v>0.9549107704449765</v>
+        <v>1.008120321157889</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039169353751321</v>
+        <v>1.041061286776852</v>
       </c>
       <c r="J24">
-        <v>1.014947243585411</v>
+        <v>1.018565193883757</v>
       </c>
       <c r="K24">
-        <v>1.022459820891838</v>
+        <v>1.02497593859785</v>
       </c>
       <c r="L24">
-        <v>1.010274866341481</v>
+        <v>1.013538704898049</v>
       </c>
       <c r="M24">
-        <v>0.9697788413607077</v>
+        <v>1.022006319887757</v>
       </c>
       <c r="N24">
-        <v>1.016388585087379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010140447309712</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.025988767340884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9956094802314238</v>
+        <v>0.9971318831934922</v>
       </c>
       <c r="D25">
-        <v>1.015128333968879</v>
+        <v>1.015614032560529</v>
       </c>
       <c r="E25">
-        <v>1.003066269563616</v>
+        <v>1.004450180706518</v>
       </c>
       <c r="F25">
-        <v>0.9687306406791255</v>
+        <v>1.013415866966815</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042353648257084</v>
+        <v>1.042912268986088</v>
       </c>
       <c r="J25">
-        <v>1.020285511721972</v>
+        <v>1.02175615794295</v>
       </c>
       <c r="K25">
-        <v>1.0274962551035</v>
+        <v>1.027974701474169</v>
       </c>
       <c r="L25">
-        <v>1.015617171402592</v>
+        <v>1.016979803931549</v>
       </c>
       <c r="M25">
-        <v>0.9818345772338664</v>
+        <v>1.025809428433411</v>
       </c>
       <c r="N25">
-        <v>1.021734434177001</v>
+        <v>1.01120936126819</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.028998728396714</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002083389802132</v>
+        <v>1.002256911531433</v>
       </c>
       <c r="D2">
-        <v>1.019068161485257</v>
+        <v>1.018993396370638</v>
       </c>
       <c r="E2">
-        <v>1.008283789491658</v>
+        <v>1.008437018720114</v>
       </c>
       <c r="F2">
-        <v>1.017524802291689</v>
+        <v>1.017599972234511</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044299946814724</v>
+        <v>1.044313875591918</v>
       </c>
       <c r="J2">
-        <v>1.024201965102474</v>
+        <v>1.024370327674487</v>
       </c>
       <c r="K2">
-        <v>1.030268087592932</v>
+        <v>1.030194315804191</v>
       </c>
       <c r="L2">
-        <v>1.01962891182504</v>
+        <v>1.01978005066343</v>
       </c>
       <c r="M2">
-        <v>1.0287452705583</v>
+        <v>1.028819438174325</v>
       </c>
       <c r="N2">
-        <v>1.01202853832616</v>
+        <v>1.013703121613722</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.031322284567509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031380984020413</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020169539687649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005583403987515</v>
+        <v>1.00561626738675</v>
       </c>
       <c r="D3">
-        <v>1.021513918024808</v>
+        <v>1.021236966538383</v>
       </c>
       <c r="E3">
-        <v>1.011005815124554</v>
+        <v>1.011036917747973</v>
       </c>
       <c r="F3">
-        <v>1.020445696415693</v>
+        <v>1.020459913589652</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045257877447661</v>
+        <v>1.04516026426772</v>
       </c>
       <c r="J3">
-        <v>1.02592300844445</v>
+        <v>1.025954989465118</v>
       </c>
       <c r="K3">
-        <v>1.031878730030697</v>
+        <v>1.03160514025203</v>
       </c>
       <c r="L3">
-        <v>1.021499784908252</v>
+        <v>1.021530500306448</v>
       </c>
       <c r="M3">
-        <v>1.030823487261264</v>
+        <v>1.030837531475562</v>
       </c>
       <c r="N3">
-        <v>1.012604868551084</v>
+        <v>1.014124834566048</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.032967073108628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032978188280296</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020444433359216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007806005713594</v>
+        <v>1.007750501798138</v>
       </c>
       <c r="D4">
-        <v>1.023068699122515</v>
+        <v>1.022664075400581</v>
       </c>
       <c r="E4">
-        <v>1.012739816176648</v>
+        <v>1.012694072896263</v>
       </c>
       <c r="F4">
-        <v>1.022308010234031</v>
+        <v>1.022284019206353</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045855294715736</v>
+        <v>1.04568715109715</v>
       </c>
       <c r="J4">
-        <v>1.027012119084856</v>
+        <v>1.026958005556646</v>
       </c>
       <c r="K4">
-        <v>1.03289645482859</v>
+        <v>1.032496448782232</v>
       </c>
       <c r="L4">
-        <v>1.022686876502609</v>
+        <v>1.022641668279207</v>
       </c>
       <c r="M4">
-        <v>1.032144450858601</v>
+        <v>1.032120734000114</v>
       </c>
       <c r="N4">
-        <v>1.012969525384378</v>
+        <v>1.014391747331294</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034012537527212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033993767052679</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020615420767968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008730569007061</v>
+        <v>1.008638521237847</v>
       </c>
       <c r="D5">
-        <v>1.023715820050407</v>
+        <v>1.023258252332378</v>
       </c>
       <c r="E5">
-        <v>1.013462406813754</v>
+        <v>1.013384858697243</v>
       </c>
       <c r="F5">
-        <v>1.023084471942502</v>
+        <v>1.023044699521535</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046101155931817</v>
+        <v>1.045903741393086</v>
       </c>
       <c r="J5">
-        <v>1.027464230974529</v>
+        <v>1.027374420778248</v>
       </c>
       <c r="K5">
-        <v>1.033318557770434</v>
+        <v>1.032866074062637</v>
       </c>
       <c r="L5">
-        <v>1.023180427387099</v>
+        <v>1.023103762133621</v>
       </c>
       <c r="M5">
-        <v>1.03269422600304</v>
+        <v>1.032654895940316</v>
       </c>
       <c r="N5">
-        <v>1.013120886811092</v>
+        <v>1.014502556049274</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034447651521228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034416524148621</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02068567722577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008885239148919</v>
+        <v>1.008787090236647</v>
       </c>
       <c r="D6">
-        <v>1.023824096869017</v>
+        <v>1.02335768165675</v>
       </c>
       <c r="E6">
-        <v>1.013583363171065</v>
+        <v>1.013500503700727</v>
       </c>
       <c r="F6">
-        <v>1.02321446976828</v>
+        <v>1.023172063694813</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046142128883104</v>
+        <v>1.045939821530379</v>
       </c>
       <c r="J6">
-        <v>1.027539808747153</v>
+        <v>1.027444033586587</v>
       </c>
       <c r="K6">
-        <v>1.033389096706783</v>
+        <v>1.032927840315714</v>
       </c>
       <c r="L6">
-        <v>1.023262977509941</v>
+        <v>1.023181057047473</v>
       </c>
       <c r="M6">
-        <v>1.032786213593635</v>
+        <v>1.032744277004069</v>
       </c>
       <c r="N6">
-        <v>1.013146188382102</v>
+        <v>1.014521079887093</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034520454145945</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034487263867924</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020697378833782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007818398002412</v>
+        <v>1.007769271222196</v>
       </c>
       <c r="D7">
-        <v>1.023077371373465</v>
+        <v>1.022677374726524</v>
       </c>
       <c r="E7">
-        <v>1.012749496342247</v>
+        <v>1.012709450070211</v>
       </c>
       <c r="F7">
-        <v>1.022318410487176</v>
+        <v>1.022297176016981</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045858600623864</v>
+        <v>1.045693816981659</v>
       </c>
       <c r="J7">
-        <v>1.027018182664591</v>
+        <v>1.026970286021855</v>
       </c>
       <c r="K7">
-        <v>1.032902117434398</v>
+        <v>1.032506684011663</v>
       </c>
       <c r="L7">
-        <v>1.022693492817198</v>
+        <v>1.022653914793254</v>
       </c>
       <c r="M7">
-        <v>1.032151818643435</v>
+        <v>1.032130826752545</v>
       </c>
       <c r="N7">
-        <v>1.012971555456586</v>
+        <v>1.014420865126402</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034018368687997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034001754862449</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020617922858586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003275127918633</v>
+        <v>1.0034216427555</v>
       </c>
       <c r="D8">
-        <v>1.019900557839717</v>
+        <v>1.01977318812805</v>
       </c>
       <c r="E8">
-        <v>1.009209468148456</v>
+        <v>1.009339789565115</v>
       </c>
       <c r="F8">
-        <v>1.01851777584264</v>
+        <v>1.018581217056019</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044628374819002</v>
+        <v>1.04461575866521</v>
       </c>
       <c r="J8">
-        <v>1.024788750375815</v>
+        <v>1.02493105388572</v>
       </c>
       <c r="K8">
-        <v>1.030817545357425</v>
+        <v>1.030691817990261</v>
       </c>
       <c r="L8">
-        <v>1.02026611981502</v>
+        <v>1.020394716419617</v>
       </c>
       <c r="M8">
-        <v>1.029452620878967</v>
+        <v>1.029515241472182</v>
       </c>
       <c r="N8">
-        <v>1.012225047583324</v>
+        <v>1.01393091376224</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.031882111944248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031931672545411</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020268678013954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9949338517771829</v>
+        <v>0.9954247128182151</v>
       </c>
       <c r="D9">
-        <v>1.01408307743661</v>
+        <v>1.014444387287577</v>
       </c>
       <c r="E9">
-        <v>1.002754675796364</v>
+        <v>1.003183202633905</v>
       </c>
       <c r="F9">
-        <v>1.011600185590377</v>
+        <v>1.011813413880433</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042285188390897</v>
+        <v>1.042541900582824</v>
       </c>
       <c r="J9">
-        <v>1.020666785997233</v>
+        <v>1.021140077262652</v>
       </c>
       <c r="K9">
-        <v>1.026951725245187</v>
+        <v>1.027307382073342</v>
       </c>
       <c r="L9">
-        <v>1.015803217852265</v>
+        <v>1.016224844854183</v>
       </c>
       <c r="M9">
-        <v>1.024507820295181</v>
+        <v>1.024717690817668</v>
       </c>
       <c r="N9">
-        <v>1.010844457200411</v>
+        <v>1.012931509627681</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.02796857526843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028134676650569</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019594475141993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9892127524858086</v>
+        <v>0.9899738215679412</v>
       </c>
       <c r="D10">
-        <v>1.010115311592744</v>
+        <v>1.010836591081713</v>
       </c>
       <c r="E10">
-        <v>0.9983685789188749</v>
+        <v>0.9990307367002502</v>
       </c>
       <c r="F10">
-        <v>1.00714384775081</v>
+        <v>1.007474848326671</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040646201049024</v>
+        <v>1.041104099769852</v>
       </c>
       <c r="J10">
-        <v>1.017860994957942</v>
+        <v>1.018590958991666</v>
       </c>
       <c r="K10">
-        <v>1.024304301571683</v>
+        <v>1.025012905749953</v>
       </c>
       <c r="L10">
-        <v>1.012767351784746</v>
+        <v>1.013417513575546</v>
       </c>
       <c r="M10">
-        <v>1.021385304748126</v>
+        <v>1.02171044099016</v>
       </c>
       <c r="N10">
-        <v>1.009908514916521</v>
+        <v>1.012372954469031</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.025549523373225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.025806835794963</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019130817299619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9873372216684406</v>
+        <v>0.9882151431007897</v>
       </c>
       <c r="D11">
-        <v>1.008894833846403</v>
+        <v>1.009746303094903</v>
       </c>
       <c r="E11">
-        <v>0.9970136151708378</v>
+        <v>0.9977760361406929</v>
       </c>
       <c r="F11">
-        <v>1.007642937925197</v>
+        <v>1.008021907177186</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040271964911487</v>
+        <v>1.040807258418349</v>
       </c>
       <c r="J11">
-        <v>1.017246442928495</v>
+        <v>1.018086539083258</v>
       </c>
       <c r="K11">
-        <v>1.023650933748378</v>
+        <v>1.024486729606912</v>
       </c>
       <c r="L11">
-        <v>1.01199207094631</v>
+        <v>1.012740015386754</v>
       </c>
       <c r="M11">
-        <v>1.022422144764236</v>
+        <v>1.022794111275075</v>
       </c>
       <c r="N11">
-        <v>1.009737885862339</v>
+        <v>1.012491852599444</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.026812239674268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027106460986499</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019061752751296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9868563351353274</v>
+        <v>0.9877637148420249</v>
       </c>
       <c r="D12">
-        <v>1.008617548758887</v>
+        <v>1.009497532833677</v>
       </c>
       <c r="E12">
-        <v>0.9967030715796625</v>
+        <v>0.9974897231789422</v>
       </c>
       <c r="F12">
-        <v>1.008649549226905</v>
+        <v>1.009039069960198</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040252196503888</v>
+        <v>1.040805429731403</v>
       </c>
       <c r="J12">
-        <v>1.017227566564497</v>
+        <v>1.018095118580036</v>
       </c>
       <c r="K12">
-        <v>1.023581491691647</v>
+        <v>1.024445009425711</v>
       </c>
       <c r="L12">
-        <v>1.011893709293693</v>
+        <v>1.012665174672884</v>
       </c>
       <c r="M12">
-        <v>1.023612892706801</v>
+        <v>1.023995120672245</v>
       </c>
       <c r="N12">
-        <v>1.009759416994149</v>
+        <v>1.012615025047802</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.028084159600586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028386392937546</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019079621299175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9874138556507329</v>
+        <v>0.9882768006453</v>
       </c>
       <c r="D13">
-        <v>1.009044835141986</v>
+        <v>1.009870541300798</v>
       </c>
       <c r="E13">
-        <v>0.9971710423965214</v>
+        <v>0.9979177377091597</v>
       </c>
       <c r="F13">
-        <v>1.010134871017569</v>
+        <v>1.010503666904343</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040507016694079</v>
+        <v>1.041029165677197</v>
       </c>
       <c r="J13">
-        <v>1.017665994829995</v>
+        <v>1.018491259967839</v>
       </c>
       <c r="K13">
-        <v>1.023957318920042</v>
+        <v>1.024767642109931</v>
       </c>
       <c r="L13">
-        <v>1.012308425366051</v>
+        <v>1.013040771195214</v>
       </c>
       <c r="M13">
-        <v>1.025027054275906</v>
+        <v>1.025388994745814</v>
       </c>
       <c r="N13">
-        <v>1.009930307536311</v>
+        <v>1.012714409714489</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.029481516764114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.029767635398406</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01916514106598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9882650336655565</v>
+        <v>0.9890649116618787</v>
       </c>
       <c r="D14">
-        <v>1.009655494660721</v>
+        <v>1.010407314844374</v>
       </c>
       <c r="E14">
-        <v>0.9978430961697645</v>
+        <v>0.9985342316584999</v>
       </c>
       <c r="F14">
-        <v>1.011364892151852</v>
+        <v>1.011705864312674</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040804238143883</v>
+        <v>1.041283375045533</v>
       </c>
       <c r="J14">
-        <v>1.018170647776172</v>
+        <v>1.018936102065279</v>
       </c>
       <c r="K14">
-        <v>1.024414324215359</v>
+        <v>1.025152312579516</v>
       </c>
       <c r="L14">
-        <v>1.012822825920976</v>
+        <v>1.013500848490681</v>
       </c>
       <c r="M14">
-        <v>1.026092311373791</v>
+        <v>1.026427034675858</v>
       </c>
       <c r="N14">
-        <v>1.01011432533172</v>
+        <v>1.012772163896154</v>
       </c>
       <c r="O14">
-        <v>1.03</v>
+        <v>1.030000000000001</v>
       </c>
       <c r="P14">
-        <v>1.030498187585487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030762754623332</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019254062051083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.988706583555268</v>
+        <v>0.9894752290271337</v>
       </c>
       <c r="D15">
-        <v>1.009964839007076</v>
+        <v>1.010680428876637</v>
       </c>
       <c r="E15">
-        <v>0.99818403137006</v>
+        <v>0.9988479284117067</v>
       </c>
       <c r="F15">
-        <v>1.011815947765132</v>
+        <v>1.0121434310082</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040941729188261</v>
+        <v>1.041399670985683</v>
       </c>
       <c r="J15">
-        <v>1.018402864032561</v>
+        <v>1.019138718154155</v>
       </c>
       <c r="K15">
-        <v>1.024630350933794</v>
+        <v>1.025332875465857</v>
       </c>
       <c r="L15">
-        <v>1.01306815708002</v>
+        <v>1.013719555230983</v>
       </c>
       <c r="M15">
-        <v>1.026447711248486</v>
+        <v>1.026769240708894</v>
       </c>
       <c r="N15">
-        <v>1.010195088116515</v>
+        <v>1.012786568751232</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.030816874273138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031071006101822</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019292674128095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9910039631355217</v>
+        <v>0.9916236417043522</v>
       </c>
       <c r="D16">
-        <v>1.011547622999993</v>
+        <v>1.012088558019991</v>
       </c>
       <c r="E16">
-        <v>0.9999304405281775</v>
+        <v>1.000465547953549</v>
       </c>
       <c r="F16">
-        <v>1.013457066233188</v>
+        <v>1.013721152651025</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041592529891109</v>
+        <v>1.041948474202101</v>
       </c>
       <c r="J16">
-        <v>1.019501162138452</v>
+        <v>1.02009571981453</v>
       </c>
       <c r="K16">
-        <v>1.025675390600556</v>
+        <v>1.026206879973603</v>
       </c>
       <c r="L16">
-        <v>1.014264269568024</v>
+        <v>1.014789748827518</v>
       </c>
       <c r="M16">
-        <v>1.027551549983529</v>
+        <v>1.027811045838856</v>
       </c>
       <c r="N16">
-        <v>1.010556805968483</v>
+        <v>1.012830913455043</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.031650367874447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.031855475226168</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019465818709478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9923282080934545</v>
+        <v>0.9928733682163994</v>
       </c>
       <c r="D17">
-        <v>1.012448446990548</v>
+        <v>1.012898907940824</v>
       </c>
       <c r="E17">
-        <v>1.000926076520076</v>
+        <v>1.001397175011779</v>
       </c>
       <c r="F17">
-        <v>1.014076635965052</v>
+        <v>1.014309320152916</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041937004275538</v>
+        <v>1.042240645417143</v>
       </c>
       <c r="J17">
-        <v>1.020084428098271</v>
+        <v>1.020608194215904</v>
       </c>
       <c r="K17">
-        <v>1.026241674461157</v>
+        <v>1.026684490340798</v>
       </c>
       <c r="L17">
-        <v>1.014917887721041</v>
+        <v>1.015380750957926</v>
       </c>
       <c r="M17">
-        <v>1.027842271774482</v>
+        <v>1.028071022177001</v>
       </c>
       <c r="N17">
-        <v>1.010739448829526</v>
+        <v>1.012864382863593</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.031750204100007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.031931028218622</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019553597407328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9929109796564616</v>
+        <v>0.9934314404010829</v>
       </c>
       <c r="D18">
-        <v>1.012820877427139</v>
+        <v>1.013240750608388</v>
       </c>
       <c r="E18">
-        <v>1.001340203066996</v>
+        <v>1.001790713190098</v>
       </c>
       <c r="F18">
-        <v>1.013711262201234</v>
+        <v>1.013934132827718</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04203310203915</v>
+        <v>1.042319100572159</v>
       </c>
       <c r="J18">
-        <v>1.020244502919246</v>
+        <v>1.020744917537303</v>
       </c>
       <c r="K18">
-        <v>1.02642191564399</v>
+        <v>1.026834779517218</v>
       </c>
       <c r="L18">
-        <v>1.01513584289084</v>
+        <v>1.015578608016629</v>
       </c>
       <c r="M18">
-        <v>1.027297445338222</v>
+        <v>1.027516602874865</v>
       </c>
       <c r="N18">
-        <v>1.010772611281738</v>
+        <v>1.012845253642485</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.031079799121368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.031253076830786</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.01956771328569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9927878065805612</v>
+        <v>0.9933259026455521</v>
       </c>
       <c r="D19">
-        <v>1.0126867759079</v>
+        <v>1.013129576435389</v>
       </c>
       <c r="E19">
-        <v>1.001197310604667</v>
+        <v>1.001664127834085</v>
       </c>
       <c r="F19">
-        <v>1.01234482624937</v>
+        <v>1.012576437213249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041887557170986</v>
+        <v>1.042186405920442</v>
       </c>
       <c r="J19">
-        <v>1.019989839653382</v>
+        <v>1.020507325090674</v>
       </c>
       <c r="K19">
-        <v>1.026226665661925</v>
+        <v>1.026662111381635</v>
       </c>
       <c r="L19">
-        <v>1.014930976212897</v>
+        <v>1.015389808395233</v>
       </c>
       <c r="M19">
-        <v>1.025890401373356</v>
+        <v>1.026118160955112</v>
       </c>
       <c r="N19">
-        <v>1.010661215500451</v>
+        <v>1.012751770367666</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.029638307224475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.029818446188301</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019508550346779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9906978303720836</v>
+        <v>0.9913692898346517</v>
       </c>
       <c r="D20">
-        <v>1.011144592321944</v>
+        <v>1.011757308838907</v>
       </c>
       <c r="E20">
-        <v>0.9995050523349377</v>
+        <v>1.000089260270342</v>
       </c>
       <c r="F20">
-        <v>1.008308707086427</v>
+        <v>1.00860063299785</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041076392129723</v>
+        <v>1.04147164212756</v>
       </c>
       <c r="J20">
-        <v>1.018592105121207</v>
+        <v>1.019237013353379</v>
       </c>
       <c r="K20">
-        <v>1.024994267861607</v>
+        <v>1.025596523320757</v>
       </c>
       <c r="L20">
-        <v>1.013556610387459</v>
+        <v>1.014130540325498</v>
       </c>
       <c r="M20">
-        <v>1.022207014490535</v>
+        <v>1.022493917915342</v>
       </c>
       <c r="N20">
-        <v>1.010152575249669</v>
+        <v>1.012445990870529</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.026189114467513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.026416172279504</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019248522824262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9862734516182347</v>
+        <v>0.9872522839700193</v>
       </c>
       <c r="D21">
-        <v>1.008066445014955</v>
+        <v>1.009035612693542</v>
       </c>
       <c r="E21">
-        <v>0.9961103577467441</v>
+        <v>0.9969630661540509</v>
       </c>
       <c r="F21">
-        <v>1.004493008889839</v>
+        <v>1.004919612625753</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039756705831328</v>
+        <v>1.040360751881094</v>
       </c>
       <c r="J21">
-        <v>1.016356499872768</v>
+        <v>1.017292822769241</v>
       </c>
       <c r="K21">
-        <v>1.022896590832634</v>
+        <v>1.023847801053914</v>
       </c>
       <c r="L21">
-        <v>1.011165797202492</v>
+        <v>1.012002203506204</v>
       </c>
       <c r="M21">
-        <v>1.019389756891666</v>
+        <v>1.019808377028652</v>
       </c>
       <c r="N21">
-        <v>1.009400523073201</v>
+        <v>1.012343557870628</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.02391788719919</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.024249204747648</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018890378396899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9834760612485323</v>
+        <v>0.9846482582921779</v>
       </c>
       <c r="D22">
-        <v>1.006128614500049</v>
+        <v>1.007321661892748</v>
       </c>
       <c r="E22">
-        <v>0.9939761289257498</v>
+        <v>0.9949975362991834</v>
       </c>
       <c r="F22">
-        <v>1.002212507046398</v>
+        <v>1.002723922446761</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038922476003827</v>
+        <v>1.039657255791415</v>
       </c>
       <c r="J22">
-        <v>1.014959037759482</v>
+        <v>1.016077361930374</v>
       </c>
       <c r="K22">
-        <v>1.021579632222904</v>
+        <v>1.022749457336662</v>
       </c>
       <c r="L22">
-        <v>1.009667871916889</v>
+        <v>1.010668748643653</v>
       </c>
       <c r="M22">
-        <v>1.017740260791526</v>
+        <v>1.018241610347827</v>
       </c>
       <c r="N22">
-        <v>1.008932360217417</v>
+        <v>1.01227777916924</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.022612389407317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.023009184027444</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018665040537244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9849645278275051</v>
+        <v>0.98602286395452</v>
       </c>
       <c r="D23">
-        <v>1.00715936245306</v>
+        <v>1.008224764014695</v>
       </c>
       <c r="E23">
-        <v>0.9951110204871795</v>
+        <v>0.996032814427969</v>
       </c>
       <c r="F23">
-        <v>1.003425048197658</v>
+        <v>1.003886529419276</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039367338315944</v>
+        <v>1.040026675747101</v>
       </c>
       <c r="J23">
-        <v>1.015702891721832</v>
+        <v>1.01671401609484</v>
       </c>
       <c r="K23">
-        <v>1.022280755655186</v>
+        <v>1.023325950197182</v>
       </c>
       <c r="L23">
-        <v>1.010464881901954</v>
+        <v>1.011368629498351</v>
       </c>
       <c r="M23">
-        <v>1.018617712072464</v>
+        <v>1.019070348181852</v>
       </c>
       <c r="N23">
-        <v>1.009181558177136</v>
+        <v>1.012271085603457</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.023306850720064</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.023665090577824</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018782718440787</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9907045681728442</v>
+        <v>0.991377050350569</v>
       </c>
       <c r="D24">
-        <v>1.011141698766586</v>
+        <v>1.011755968204255</v>
       </c>
       <c r="E24">
-        <v>0.9995028531759794</v>
+        <v>1.000088075185601</v>
       </c>
       <c r="F24">
-        <v>1.008120321157889</v>
+        <v>1.008412917015089</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041061286776852</v>
+        <v>1.041457367798937</v>
       </c>
       <c r="J24">
-        <v>1.018565193883757</v>
+        <v>1.019211122382536</v>
       </c>
       <c r="K24">
-        <v>1.02497593859785</v>
+        <v>1.02557973388543</v>
       </c>
       <c r="L24">
-        <v>1.013538704898049</v>
+        <v>1.014113644301509</v>
       </c>
       <c r="M24">
-        <v>1.022006319887757</v>
+        <v>1.022293885782427</v>
       </c>
       <c r="N24">
-        <v>1.010140447309712</v>
+        <v>1.012432903301268</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.025988767340884</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.026216361133877</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019241501378775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9971318831934922</v>
+        <v>0.9975226543831517</v>
       </c>
       <c r="D25">
-        <v>1.015614032560529</v>
+        <v>1.015839362543963</v>
       </c>
       <c r="E25">
-        <v>1.004450180706518</v>
+        <v>1.004791960986952</v>
       </c>
       <c r="F25">
-        <v>1.013415866966815</v>
+        <v>1.013585473452213</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042912268986088</v>
+        <v>1.04309317772694</v>
       </c>
       <c r="J25">
-        <v>1.02175615794295</v>
+        <v>1.022133679690246</v>
       </c>
       <c r="K25">
-        <v>1.027974701474169</v>
+        <v>1.028196669932343</v>
       </c>
       <c r="L25">
-        <v>1.016979803931549</v>
+        <v>1.017316340613992</v>
       </c>
       <c r="M25">
-        <v>1.025809428433411</v>
+        <v>1.025976490524622</v>
       </c>
       <c r="N25">
-        <v>1.01120936126819</v>
+        <v>1.013163045853311</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.028998728396714</v>
+        <v>1.02913094898286</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019773405107527</v>
       </c>
     </row>
   </sheetData>
